--- a/biology/Microbiologie/Akkermansia/Akkermansia.xlsx
+++ b/biology/Microbiologie/Akkermansia/Akkermansia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Akkermansia est un genre de bactéries de la famille des Akkermansiaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Akkermansia est formé de bactéries à coloration de Gram négatives strictement anaérobies[1] et capables de croître sur milieu sans vitamines[2]. Ces bactéries ont une forme plutôt ovale et sont non mobiles[1]. Elles ont une longueur de 0,6 à 1,0 µm. Elles peuvent être présentes sous forme de cellules seules, en paires, sous la forme de petites chaînes ou encore sous forme de petits agrégats[1].
-La croissance de ces bactéries est possible de 20 °C à 40 °C et dans des zones de pH allant de pH 5.5 à pH 8.0 mais la croissance est optimale à 37 °C avec pH de 6.5. Elles sont capables de croître sur la mucine gastrique, sur infusion cœur-cerveau, sur milieu Columbia[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Akkermansia est formé de bactéries à coloration de Gram négatives strictement anaérobies et capables de croître sur milieu sans vitamines. Ces bactéries ont une forme plutôt ovale et sont non mobiles. Elles ont une longueur de 0,6 à 1,0 µm. Elles peuvent être présentes sous forme de cellules seules, en paires, sous la forme de petites chaînes ou encore sous forme de petits agrégats.
+La croissance de ces bactéries est possible de 20 °C à 40 °C et dans des zones de pH allant de pH 5.5 à pH 8.0 mais la croissance est optimale à 37 °C avec pH de 6.5. Elles sont capables de croître sur la mucine gastrique, sur infusion cœur-cerveau, sur milieu Columbia.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (1 mai 2024)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (1 mai 2024) :
 Akkermansia biwaensis Kobayashi et al. 2023
 Akkermansia glycaniphila Ouwerkerk et al. 2016
 Akkermansia muciniphila Derrien et al. 2004</t>
@@ -576,12 +592,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Akkermansia Derrien et al. 2004[3].
-L'espèce type est : Akkermansia muciniphila Derrien et al. 2004[3].
-Étymologie
-L'étymologie du nom de genre Akkermanasia est un hommage au microbiologiste hollandais Antoon Akkermans (d)Antoon Akkermans reconnu pour ses contributions à l'écologie microbienne et se décompose ainsi Ak.ker.man’si.a. N.L. fem. n. Akkermansia[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Akkermansia Derrien et al. 2004.
+L'espèce type est : Akkermansia muciniphila Derrien et al. 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Akkermansia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Akkermansia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre Akkermanasia est un hommage au microbiologiste hollandais Antoon Akkermans (d)Antoon Akkermans reconnu pour ses contributions à l'écologie microbienne et se décompose ainsi Ak.ker.man’si.a. N.L. fem. n. Akkermansia.
 </t>
         </is>
       </c>
